--- a/public/downloads/Weekly_Promotion_Report_November_Week_3.xlsx
+++ b/public/downloads/Weekly_Promotion_Report_November_Week_3.xlsx
@@ -67,7 +67,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -175,6 +175,87 @@
         <v>45573.30358166951</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>Relax</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>Yoga</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45646.0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>45616.310398977075</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>Rickroll</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>cart</t>
+        </is>
+      </c>
+      <c r="C5" s="0"/>
+      <c r="D5" s="0" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45679.0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>45616.31076552869</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>DrinkitNOW</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45626.0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>45616.31141398685</v>
+      </c>
+    </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
   <printOptions verticalCentered="0" horizontalCentered="0" headings="0" gridLines="0"/>
